--- a/medicine/Enfance/Séverine_Vidal/Séverine_Vidal.xlsx
+++ b/medicine/Enfance/Séverine_Vidal/Séverine_Vidal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9verine_Vidal</t>
+          <t>Séverine_Vidal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Séverine Vidal, née le 22 décembre 1969, est une écrivaine et scénariste française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9verine_Vidal</t>
+          <t>Séverine_Vidal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son premier livre à destination de la jeunesse a paru en mars 2010 aux éditions Talents Hauts.
 Elle écrit des romans (Sarbacane, Nathan, Bayard), des albums (Gallimard, Milan) et des BD (Delcourt, Grand Angle, Glénat). Elle anime des ateliers d'écriture (écoles, collèges, lycée, centres sociaux, centres d'alphabétisation…). Ses livres sont traduits à l'étranger et sont récompensés par de nombreux prix.
-Son premier roman de littérature générale, Le Goût du temps dans la bouche, paraît en janvier 2022 aux éditions Robert Laffont[1].
+Son premier roman de littérature générale, Le Goût du temps dans la bouche, paraît en janvier 2022 aux éditions Robert Laffont.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9verine_Vidal</t>
+          <t>Séverine_Vidal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,20 +558,18 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prix Jeunesse Quais du Polar / Ville de Lyon pour La drôle d'évasion, illustré par Marion Puech[2]
-Prix des dévoreurs de livres 2016 pour La drôle d’évasion, illustré par Marion Puech[3]
-Prix Gayant Lecture 2017 pour Quelqu’un qu’on aime[4]
-Prix Sésame 2017 pour Quelqu’un qu’on aime[5]
-Prix Chronos de Littérature 2017 pour Quelqu’un qu’on aime[6]
-Prix Gulli-du-roman 2017 pour Nos cœurs tordus avec Manu [7]Causse
-Prix Chronos de Littérature 2023 pour Le plongeon avec Victor L. Pinel[6]
-Prix des collèges au Festival international d'Angoulême 2024 pour Nos Coeurs tordus, avec Manu Causse et Javi Rey.
-Sélections
-Pëppo (Bayard) et Soleil glacé (Robert Laffont) ont été sélectionnés pour le prix Vendredi en 2018 et 2020[8].
-Un Monde si grand (Bayard Graphic, avec Élodie Durand) est sélectionnée pour le prix Pépites du Salon du livre jeunesse de Montreuil 2023[9].
-Nos Coeurs tordus (Bayard, avec Manu Causse et Javi Rey) est sélectionnée en 2023-2024 pour le Prix jeunesse Ville de Saint-Malo 2023[10]et pour le Prix BD France Bleu[11]2024.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix Jeunesse Quais du Polar / Ville de Lyon pour La drôle d'évasion, illustré par Marion Puech
+Prix des dévoreurs de livres 2016 pour La drôle d’évasion, illustré par Marion Puech
+Prix Gayant Lecture 2017 pour Quelqu’un qu’on aime
+Prix Sésame 2017 pour Quelqu’un qu’on aime
+Prix Chronos de Littérature 2017 pour Quelqu’un qu’on aime
+Prix Gulli-du-roman 2017 pour Nos cœurs tordus avec Manu Causse
+Prix Chronos de Littérature 2023 pour Le plongeon avec Victor L. Pinel
+Prix des collèges au Festival international d'Angoulême 2024 pour Nos Coeurs tordus, avec Manu Causse et Javi Rey.</t>
         </is>
       </c>
     </row>
@@ -567,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S%C3%A9verine_Vidal</t>
+          <t>Séverine_Vidal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,12 +594,56 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sélections</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pëppo (Bayard) et Soleil glacé (Robert Laffont) ont été sélectionnés pour le prix Vendredi en 2018 et 2020.
+Un Monde si grand (Bayard Graphic, avec Élodie Durand) est sélectionnée pour le prix Pépites du Salon du livre jeunesse de Montreuil 2023.
+Nos Coeurs tordus (Bayard, avec Manu Causse et Javi Rey) est sélectionnée en 2023-2024 pour le Prix jeunesse Ville de Saint-Malo 2023et pour le Prix BD France Bleu2024.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Séverine_Vidal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9verine_Vidal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres principales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Romans
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 2010 : Philo mène la danse, Talents Hauts (réédité en 2015 avec des illustrations de Mayana Itoïz).
 2010 : Comment j'ai connu Papa, Le Rouergue, collection Dacodac.
 2011 : Lâcher sa main, Éditions Grasset, Lampe de poche ado.
@@ -595,19 +651,19 @@
 2012 : La meilleure nuit de tous les temps, éditions du Rouergue.
 2014 : La drôle d'évasion, illustré par Marion Puech, coll. Pépix, Sarbacane.
 2015 : Il était deux fois dans l'ouest, illustré par Anne-Lise Combeaud, Sarbacane Pépix.
-2015 : Quelqu'un qu'on aime[12], Sarbacane Exprim'.
+2015 : Quelqu'un qu'on aime, Sarbacane Exprim'.
 2016 : La Drôle d'expédition, Sarbacane Pépix.
 2016 : Le jour où j'ai trouvé un trésor, ill. Vincent Sorel, Auzou.
 2017 : Nos cœurs tordus, co-écrit avec Manu Causse, Bayard.
 2017 : Le jour où je suis devenu détective, ill. Vincent Sorel, Auzou.
-2018 : Pëppo[13], Bayard
+2018 : Pëppo, Bayard
 2018 : Nos Cœurs tordus tome 2, co-écrit avec Manu Causse
 2018 : Le jour où j'ai sauvé un fantôme, ill. Vincent Sorel, Auzou.
 2019 : Mes vacances bien pourries, ill. Oriol Vidal, Milan.
 2019 : Le jour où je suis devenu une star au Japon, ill. Vincent Sorel, Auzou.
 2019 : L'étrange village de l'arbre-poulpe, avec AG Balpe, ill. Jess Pauwels, Rageot.
-2019 : Des Astres[14], coll. Exprim', Sarbacane.
-2020 : Soleil Glacé[15], Robert Laffont (R)
+2019 : Des Astres, coll. Exprim', Sarbacane.
+2020 : Soleil Glacé, Robert Laffont (R)
 2020 : Nils et le peuple des nuages (Pépix), Sarbacane, ill. Mioz Lamine.
 2020 : Son héroïne (Nathan, coll. Court Toujours)
 2021 : L'Été des Perséides (Nathan)
@@ -618,15 +674,51 @@
 2022 : George Sand, L'indomptée (Rageot)
 2022 : Plus jamais petite (Nathan)
 2023 : Pétouille cosmique, ill. Ronan Badel, Sarbacane.
-Bandes dessinées
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Séverine_Vidal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9verine_Vidal</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres principales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 2010 : Arsène veut grandir, Alice jeunesse.
 2010 : Mona, dessins de Mathieu Bertrand, Les Enfants rouges.
 2016 : La Belle absente, (BD adulte) dessins de Stéphane Barroux, co-écrit avec Constance Joly, Les Enfants rouges.
 2016 : Rose, dessins de Victor Pinel, Les Enfants rouges.
 2018 : Magic Félix, dessin de Kim Consigny, éd. Jungle, coll. Jeunesse
-Apprenti magicien[16], 2018  (ISBN 978-2-8222-2083-5)
-2019 : La Maison de la plage[17],[18], dessins de Victor Pinel, Marabulles.
-2019 : L'Onde Dolto[19], (tome 1/2) dessins d'Alica Jaraba, Delcourt.
+Apprenti magicien, 2018  (ISBN 978-2-8222-2083-5)
+2019 : La Maison de la plage dessins de Victor Pinel, Marabulles.
+2019 : L'Onde Dolto, (tome 1/2) dessins d'Alica Jaraba, Delcourt.
 2020 : L'Onde Dolto (tome 2/2) dessins Alicia Jaraba, Delcourt.
 2021 : Le Plongeon, dessins Victor Pinel, Grand Angle.
 2021 : George Sand : Fille du siècle, dessins Kim Consigny, Delcourt.
@@ -638,7 +730,43 @@
 2023 : Un monde si grand, avec Elodie Durand, Bayard Graphic.
 2023 : Le Seul endroit, avec Marion Cluzel, Glénat.
 2024 : Nos coeurs tordus', tome 2', avec Manu Causse, dessins Javi Rey, Bayard.
-Albums jeunesse
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Séverine_Vidal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9verine_Vidal</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres principales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Albums jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 2011 : J'attends Mamy, illustré par Cécile Vangout, Alice Jeunesse.
 2012 : Rien qu'une fois, illustré par Csil, éditions Winioux.
 2013 : L’œil du pigeon, illustré par Guillaume Plantevin, Sarbacane.
@@ -667,8 +795,43 @@
 2023 : Le bateau rêve, ill. Julien Arnal, Gallimard jeunesse.
 2023 : Histoires secrètes d'animaux fantastiques, ill. Simon Bailly, Sens dessus dessous.
 2024 : Le livre qui commence par la fin, ill. Louis Thomas, Sens dessus dessous.
-Podcast
-2020 : Les papiers d'Omar  /  Une histoire et Oli (France Inter) co-écrit avec Sophia Aram.</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Séverine_Vidal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9verine_Vidal</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres principales</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Podcast</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2020 : Les papiers d'Omar  /  Une histoire et Oli (France Inter) co-écrit avec Sophia Aram.</t>
         </is>
       </c>
     </row>
